--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.010920-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.010920-2.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2737,12 +2737,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4077,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4371,12 +4371,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4967,12 +4967,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5097,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5391,12 +5391,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5433,12 +5433,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5685,12 +5685,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6355,12 +6355,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7413,12 +7413,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7539,12 +7539,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7665,12 +7665,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8295,12 +8295,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8505,12 +8505,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8757,12 +8757,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9731,12 +9731,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10319,12 +10319,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10613,12 +10613,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
